--- a/src/test/resources/excel/testdata.xlsx
+++ b/src/test/resources/excel/testdata.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22527"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24332"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\admin\IdeaProjects\CompleteFrameWork\src\test\resources\excel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\admin\IdeaProjects\Complete_FrameWork\src\test\resources\excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C3F83150-F0FA-4165-9EDB-02ACA64E02E8}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{179A9214-98F2-43BB-B967-6BF712EDA90B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{1251D5FA-35FC-465C-9A1A-248BEB8F6465}"/>
+    <workbookView xWindow="1815" yWindow="1815" windowWidth="21600" windowHeight="11385" activeTab="1" xr2:uid="{1251D5FA-35FC-465C-9A1A-248BEB8F6465}"/>
   </bookViews>
   <sheets>
     <sheet name="RUNMANAGER" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="34">
   <si>
     <t>testcasename</t>
   </si>
@@ -576,7 +576,7 @@
   <dimension ref="A1:I8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="P10" sqref="P10"/>
+      <selection activeCell="I15" sqref="I15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -631,8 +631,8 @@
       <c r="C2" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="D2" s="3" t="s">
-        <v>32</v>
+      <c r="D2" s="3">
+        <v>119</v>
       </c>
       <c r="E2" s="2" t="s">
         <v>14</v>
@@ -655,13 +655,13 @@
         <v>1</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>30</v>
+        <v>7</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="D3" s="3" t="s">
-        <v>33</v>
+      <c r="D3" s="3">
+        <v>120</v>
       </c>
       <c r="E3" s="2" t="s">
         <v>14</v>
@@ -713,7 +713,7 @@
         <v>8</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>7</v>
+        <v>30</v>
       </c>
       <c r="C5" s="2" t="s">
         <v>20</v>
